--- a/tiget/document/테이블명세-선호장르.xlsx
+++ b/tiget/document/테이블명세-선호장르.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50517\Documents\workspace\NodeJS\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C300324-1DB4-44AB-870D-5D9AC7264680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED884A0D-19A8-4412-B896-55CF464A58BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1109,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L1048576"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="O4" sqref="O4:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1762,8 +1766,8 @@
     <col min="16141" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1808,8 +1812,11 @@
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1833,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -1886,7 +1893,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -1911,7 +1918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8">
         <v>3</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>4</v>
       </c>
@@ -1961,7 +1968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>5</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>7</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>8</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
         <v>9</v>
       </c>
@@ -2076,7 +2083,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <v>10</v>
       </c>
@@ -2091,7 +2098,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <v>11</v>
       </c>
@@ -2331,9 +2338,6 @@
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="25"/>
-    </row>
-    <row r="1048576" spans="7:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G1048576" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
